--- a/11224-chl해람.xlsx
+++ b/11224-chl해람.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -523,12 +523,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,12 +535,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,6 +546,18 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,7 +925,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="1"/>
@@ -973,7 +973,7 @@
       <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="1"/>
@@ -1012,10 +1012,10 @@
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>40500</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>41500</v>
       </c>
       <c r="H5" s="3" t="str">
@@ -1062,10 +1062,10 @@
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>71000</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>68000</v>
       </c>
       <c r="H6" s="3" t="str">
@@ -1073,7 +1073,7 @@
         <v>부분개조</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" ref="I5:I13" si="1">TRUNC(HLOOKUP(E6,$B$17:$E$18,2,0)*G6)</f>
+        <f t="shared" ref="I6:I13" si="1">TRUNC(HLOOKUP(E6,$B$17:$E$18,2,0)*G6)</f>
         <v>204</v>
       </c>
       <c r="J6" s="1"/>
@@ -1112,10 +1112,10 @@
       <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>27500</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>25800</v>
       </c>
       <c r="H7" s="3" t="str">
@@ -1162,10 +1162,10 @@
       <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>12500</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>11500</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -1212,10 +1212,10 @@
       <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>18000</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>18000</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -1262,10 +1262,10 @@
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>17500</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>17000</v>
       </c>
       <c r="H10" s="3" t="str">
@@ -1312,10 +1312,10 @@
       <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>22000</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>20000</v>
       </c>
       <c r="H11" s="3" t="str">
@@ -1362,10 +1362,10 @@
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>7500</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>7500</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -1412,10 +1412,10 @@
       <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>6000</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>5500</v>
       </c>
       <c r="H13" s="3" t="str">
@@ -1450,7 +1450,7 @@
     </row>
     <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1462,12 +1462,15 @@
       <c r="E14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="7"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="7">
+        <f>MATCH(MIN(F5:F13),F5:F13,0)</f>
+        <v>9</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1492,18 +1495,27 @@
     </row>
     <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="8">
+        <f>VLOOKUP(C15,중개실적,5,0)</f>
+        <v>27500</v>
+      </c>
+      <c r="E15" s="8">
+        <f>IF(ISERROR(VLOOKUP(C15,B5:G13,6,0)),"없음",VLOOKUP(C15,B5:G13,6,0))</f>
+        <v>25800</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="12" t="str">
+        <f>INDEX(B5:B13,MATCH(MAX(G5:G13),G5:G13,0),1)</f>
+        <v>방배-H672</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1569,7 +1581,7 @@
       <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="1"/>
@@ -1600,16 +1612,16 @@
     </row>
     <row r="18" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F18" s="1"/>
